--- a/data/zenodo_ivan/extraction/CHE_ext_nuclear.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_nuclear.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EE01A-3CE8-CD4B-9DE6-97BD810BDC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF07EA7-FEAB-9E40-ADEA-3DEF6EE79F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17480" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>proven_reserves</t>
   </si>
   <si>
-    <t>cost_variable</t>
-  </si>
-  <si>
     <t>Not applicable due to primary energy configuration (following IPCC WG III method)</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -662,16 +662,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -692,10 +692,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -718,10 +718,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -752,10 +752,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -769,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -786,10 +786,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -803,10 +803,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -818,16 +818,16 @@
         <v>2.1</v>
       </c>
       <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -835,10 +835,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -852,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -869,10 +869,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -886,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -903,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -920,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -937,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -954,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -971,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -988,10 +988,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1005,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -1022,10 +1022,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1039,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1056,10 +1056,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1073,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1090,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -1124,10 +1124,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -1141,10 +1141,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1158,10 +1158,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -1175,10 +1175,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1192,10 +1192,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1209,10 +1209,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1226,10 +1226,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>

--- a/data/zenodo_ivan/extraction/CHE_ext_nuclear.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_nuclear.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF07EA7-FEAB-9E40-ADEA-3DEF6EE79F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE937B-8F7F-0642-A25C-B88BA2F5A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17480" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$573</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
   <si>
     <t>Name:</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>cost_variable_om</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -562,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,10 +671,10 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -685,18 +691,19 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -706,12 +713,17 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -720,15 +732,13 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1990</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -744,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -761,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -778,7 +788,7 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -795,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -812,22 +822,7 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1995</v>
-      </c>
-      <c r="G15">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -844,7 +839,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1995</v>
+      </c>
+      <c r="G16">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -861,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -878,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -895,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="E21">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,7 +956,7 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1031,7 +1041,7 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1065,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="E30">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1099,7 +1109,7 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,7 +1143,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="E36">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1201,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1218,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,14 +1245,31 @@
         <v>22</v>
       </c>
       <c r="E39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
         <v>2019</v>
       </c>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K152" s="2"/>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L572" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L573" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
